--- a/upload/inventory.xlsx
+++ b/upload/inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\avd\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\customAvd\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D22C33-4C1E-42DB-9980-A8F051ACC541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016F6D73-DCE7-44AB-A1BA-2ED5DB0B2FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="252" windowWidth="23040" windowHeight="12168" tabRatio="671" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-2388" windowWidth="30936" windowHeight="16776" tabRatio="671" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="20" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2876" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="668">
   <si>
     <t>! Spine-01</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2411,6 +2411,26 @@
   </si>
   <si>
     <t>Ethernet3/16/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vEOS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOS Version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.27.4M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2825,7 +2845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3001,6 +3021,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5127,7 +5153,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5457,7 +5483,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5573,7 +5599,7 @@
         <v>515</v>
       </c>
       <c r="C11" t="s">
-        <v>515</v>
+        <v>663</v>
       </c>
       <c r="E11" t="s">
         <v>515</v>
@@ -12507,7 +12533,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12863,6 +12889,12 @@
       </c>
     </row>
     <row r="23" spans="1:9">
+      <c r="A23" s="59" t="s">
+        <v>664</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>665</v>
+      </c>
       <c r="D23" s="10" t="s">
         <v>436</v>
       </c>
@@ -12872,6 +12904,12 @@
       </c>
     </row>
     <row r="24" spans="1:9">
+      <c r="A24" s="59" t="s">
+        <v>666</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>667</v>
+      </c>
       <c r="D24" s="10" t="s">
         <v>437</v>
       </c>

--- a/upload/inventory.xlsx
+++ b/upload/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\customAvd\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016F6D73-DCE7-44AB-A1BA-2ED5DB0B2FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ADB0E6-20DB-44AA-98B2-C41855BCC6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-2388" windowWidth="30936" windowHeight="16776" tabRatio="671" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
   </sheets>
   <definedNames>
     <definedName name="Var_Arp_aging">Var!$B$19</definedName>
-    <definedName name="Var_LeafP2P_Host_IP">Var!$E$24</definedName>
+    <definedName name="Var_LeafP2P_Host_IP">Var!$E$23</definedName>
     <definedName name="Var_Logging_buffered">Var!$B$5</definedName>
     <definedName name="Var_Mac_aging">Var!$B$18</definedName>
     <definedName name="Var_Mgmt_gw">Var!$B$9</definedName>
@@ -47,7 +47,7 @@
     <definedName name="Var_Privilege">Var!$B$15</definedName>
     <definedName name="Var_PTP_IPv4">Var!$E$20</definedName>
     <definedName name="Var_Spine_Num">Var!$E$8</definedName>
-    <definedName name="Var_SpineP2P_Host_IP">Var!$E$23</definedName>
+    <definedName name="Var_SpineP2P_Host_IP">Var!#REF!</definedName>
     <definedName name="Var_STP_mode">Var!$B$7</definedName>
     <definedName name="Var_Terminal_length">Var!$B$3</definedName>
     <definedName name="Var_Terminal_width">Var!$B$4</definedName>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="667">
   <si>
     <t>! Spine-01</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1646,10 +1646,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SpineP2P Host IP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LeafP2P Host IP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2417,19 +2413,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EOS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vEOS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EOS Version</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4.27.4M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansible IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3698,10 +3694,10 @@
         <v>243</v>
       </c>
       <c r="M1" t="s">
+        <v>439</v>
+      </c>
+      <c r="O1" t="s">
         <v>440</v>
-      </c>
-      <c r="O1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3964,226 +3960,226 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -4266,28 +4262,28 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -4641,10 +4637,10 @@
         <v>243</v>
       </c>
       <c r="M1" t="s">
+        <v>439</v>
+      </c>
+      <c r="O1" t="s">
         <v>440</v>
-      </c>
-      <c r="O1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1">
@@ -4683,32 +4679,32 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4745,22 +4741,22 @@
         <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5185,10 +5181,10 @@
         <v>243</v>
       </c>
       <c r="I1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1" t="s">
         <v>440</v>
-      </c>
-      <c r="K1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5213,22 +5209,22 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1">
@@ -5419,22 +5415,22 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5596,13 +5592,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5854,24 +5850,24 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5934,18 +5930,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" t="s">
         <v>440</v>
-      </c>
-      <c r="C1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6014,10 +6010,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6225,10 +6221,10 @@
         <v>242</v>
       </c>
       <c r="G1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6259,21 +6255,21 @@
         <v>74</v>
       </c>
       <c r="G4" t="s">
+        <v>525</v>
+      </c>
+      <c r="I4" t="s">
         <v>526</v>
-      </c>
-      <c r="I4" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -6309,18 +6305,18 @@
     </row>
     <row r="8" spans="1:9">
       <c r="G8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="G9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6661,21 +6657,21 @@
         <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -6732,24 +6728,24 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6827,7 +6823,7 @@
         <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6846,13 +6842,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -6883,18 +6879,18 @@
         <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G8" t="s">
         <v>81</v>
@@ -6926,7 +6922,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="G12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6956,22 +6952,22 @@
     </row>
     <row r="18" spans="7:7">
       <c r="G18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="7:7">
@@ -7967,28 +7963,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8123,28 +8119,28 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -8201,54 +8197,54 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -8531,10 +8527,10 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H23" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -8565,28 +8561,28 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -8669,10 +8665,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -8687,10 +8683,10 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H29" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -8736,7 +8732,7 @@
         <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -8747,10 +8743,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -8791,18 +8787,18 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H33" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -8831,13 +8827,13 @@
         <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F35" t="s">
         <v>133</v>
@@ -8866,21 +8862,21 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B37" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C37" t="s">
         <v>133</v>
@@ -8909,22 +8905,22 @@
         <v>383</v>
       </c>
       <c r="C38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -8955,19 +8951,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
@@ -8996,13 +8992,13 @@
         <v>138</v>
       </c>
       <c r="F41" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G41" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H41" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -9039,13 +9035,13 @@
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D43" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E43" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -9059,10 +9055,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C44" t="s">
         <v>383</v>
@@ -9074,13 +9070,13 @@
         <v>383</v>
       </c>
       <c r="F44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -9117,13 +9113,13 @@
         <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D46" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E46" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F46" t="s">
         <v>27</v>
@@ -9163,10 +9159,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B48" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -9178,7 +9174,7 @@
         <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G48" t="s">
         <v>8</v>
@@ -9221,13 +9217,13 @@
         <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D50" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E50" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F50" t="s">
         <v>38</v>
@@ -9259,18 +9255,18 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H51" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B52" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C52" t="s">
         <v>38</v>
@@ -9282,7 +9278,7 @@
         <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G52" t="s">
         <v>8</v>
@@ -9325,13 +9321,13 @@
         <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D54" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E54" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F54" t="s">
         <v>40</v>
@@ -9363,18 +9359,18 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B56" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C56" t="s">
         <v>40</v>
@@ -9475,10 +9471,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B60" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
@@ -9579,10 +9575,10 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
@@ -9672,7 +9668,7 @@
         <v>48</v>
       </c>
       <c r="F67" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G67" t="s">
         <v>8</v>
@@ -9715,16 +9711,16 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
+        <v>562</v>
+      </c>
+      <c r="D69" t="s">
+        <v>562</v>
+      </c>
+      <c r="E69" t="s">
+        <v>562</v>
+      </c>
+      <c r="F69" t="s">
         <v>563</v>
-      </c>
-      <c r="D69" t="s">
-        <v>563</v>
-      </c>
-      <c r="E69" t="s">
-        <v>563</v>
-      </c>
-      <c r="F69" t="s">
-        <v>564</v>
       </c>
       <c r="G69" t="s">
         <v>49</v>
@@ -9735,10 +9731,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B70" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -9767,16 +9763,16 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
+        <v>563</v>
+      </c>
+      <c r="D71" t="s">
+        <v>563</v>
+      </c>
+      <c r="E71" t="s">
+        <v>563</v>
+      </c>
+      <c r="F71" t="s">
         <v>564</v>
-      </c>
-      <c r="D71" t="s">
-        <v>564</v>
-      </c>
-      <c r="E71" t="s">
-        <v>564</v>
-      </c>
-      <c r="F71" t="s">
-        <v>565</v>
       </c>
       <c r="G71" t="s">
         <v>48</v>
@@ -9787,10 +9783,10 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B72" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
@@ -9819,16 +9815,16 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
+        <v>564</v>
+      </c>
+      <c r="D73" t="s">
+        <v>564</v>
+      </c>
+      <c r="E73" t="s">
+        <v>564</v>
+      </c>
+      <c r="F73" t="s">
         <v>565</v>
-      </c>
-      <c r="D73" t="s">
-        <v>565</v>
-      </c>
-      <c r="E73" t="s">
-        <v>565</v>
-      </c>
-      <c r="F73" t="s">
-        <v>566</v>
       </c>
       <c r="G73" t="s">
         <v>8</v>
@@ -9839,10 +9835,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B74" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
@@ -9857,10 +9853,10 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H74" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -9871,16 +9867,16 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
+        <v>565</v>
+      </c>
+      <c r="D75" t="s">
+        <v>565</v>
+      </c>
+      <c r="E75" t="s">
+        <v>565</v>
+      </c>
+      <c r="F75" t="s">
         <v>566</v>
-      </c>
-      <c r="D75" t="s">
-        <v>566</v>
-      </c>
-      <c r="E75" t="s">
-        <v>566</v>
-      </c>
-      <c r="F75" t="s">
-        <v>567</v>
       </c>
       <c r="G75" t="s">
         <v>8</v>
@@ -9891,10 +9887,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -9909,10 +9905,10 @@
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -9923,16 +9919,16 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
+        <v>566</v>
+      </c>
+      <c r="D77" t="s">
+        <v>566</v>
+      </c>
+      <c r="E77" t="s">
+        <v>566</v>
+      </c>
+      <c r="F77" t="s">
         <v>567</v>
-      </c>
-      <c r="D77" t="s">
-        <v>567</v>
-      </c>
-      <c r="E77" t="s">
-        <v>567</v>
-      </c>
-      <c r="F77" t="s">
-        <v>568</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
@@ -9943,10 +9939,10 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B78" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -9961,10 +9957,10 @@
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H78" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -9975,13 +9971,13 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D79" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E79" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F79" t="s">
         <v>50</v>
@@ -9995,10 +9991,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B80" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -10013,10 +10009,10 @@
         <v>51</v>
       </c>
       <c r="G80" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H80" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -10065,10 +10061,10 @@
         <v>8</v>
       </c>
       <c r="G82" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H82" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -10114,13 +10110,13 @@
         <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G84" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H84" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -10157,13 +10153,13 @@
         <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D86" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E86" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F86" t="s">
         <v>8</v>
@@ -10177,10 +10173,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B87" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C87" t="s">
         <v>62</v>
@@ -10203,10 +10199,10 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -10218,7 +10214,7 @@
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G88" t="s">
         <v>59</v>
@@ -10244,7 +10240,7 @@
         <v>61</v>
       </c>
       <c r="F89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
@@ -10261,13 +10257,13 @@
         <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D90" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E90" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F90" t="s">
         <v>8</v>
@@ -10281,28 +10277,28 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B91" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C91" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D91" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E91" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F91" t="s">
         <v>79</v>
       </c>
       <c r="G91" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H91" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -10403,18 +10399,18 @@
         <v>90</v>
       </c>
       <c r="G95" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H95" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -10429,10 +10425,10 @@
         <v>91</v>
       </c>
       <c r="G96" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H96" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -10478,13 +10474,13 @@
         <v>87</v>
       </c>
       <c r="F98" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G98" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H98" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -10530,7 +10526,7 @@
         <v>8</v>
       </c>
       <c r="F100" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G100" t="s">
         <v>84</v>
@@ -10585,10 +10581,10 @@
         <v>66</v>
       </c>
       <c r="G102" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H102" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -10608,7 +10604,7 @@
         <v>93</v>
       </c>
       <c r="F103" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G103" t="s">
         <v>84</v>
@@ -10625,13 +10621,13 @@
         <v>380</v>
       </c>
       <c r="C104" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D104" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E104" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F104" t="s">
         <v>103</v>
@@ -10651,13 +10647,13 @@
         <v>381</v>
       </c>
       <c r="C105" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D105" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E105" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F105" t="s">
         <v>8</v>
@@ -10741,10 +10737,10 @@
         <v>113</v>
       </c>
       <c r="G108" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H108" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -10755,13 +10751,13 @@
         <v>96</v>
       </c>
       <c r="C109" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D109" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E109" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F109" t="s">
         <v>8</v>
@@ -10790,13 +10786,13 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G110" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H110" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -10853,10 +10849,10 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B113" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C113" t="s">
         <v>109</v>
@@ -10885,22 +10881,22 @@
         <v>102</v>
       </c>
       <c r="C114" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D114" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E114" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F114" t="s">
         <v>8</v>
       </c>
       <c r="G114" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H114" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -11041,13 +11037,13 @@
         <v>115</v>
       </c>
       <c r="C120" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D120" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E120" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F120" t="s">
         <v>124</v>
@@ -11061,10 +11057,10 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
@@ -11087,10 +11083,10 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C122" t="s">
         <v>75</v>
@@ -11157,10 +11153,10 @@
         <v>132</v>
       </c>
       <c r="G124" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H124" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -11269,10 +11265,10 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B129" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C129" t="s">
         <v>94</v>
@@ -11310,7 +11306,7 @@
         <v>130</v>
       </c>
       <c r="F130" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G130" t="s">
         <v>80</v>
@@ -11336,7 +11332,7 @@
         <v>97</v>
       </c>
       <c r="F131" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -11356,7 +11352,7 @@
         <v>99</v>
       </c>
       <c r="F132" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G132" t="s">
         <v>380</v>
@@ -11376,7 +11372,7 @@
         <v>102</v>
       </c>
       <c r="F133" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G133" t="s">
         <v>381</v>
@@ -11476,7 +11472,7 @@
         <v>112</v>
       </c>
       <c r="F138" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G138" t="s">
         <v>97</v>
@@ -11496,7 +11492,7 @@
         <v>115</v>
       </c>
       <c r="F139" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G139" t="s">
         <v>99</v>
@@ -11507,16 +11503,16 @@
     </row>
     <row r="140" spans="1:8">
       <c r="C140" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D140" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E140" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F140" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G140" t="s">
         <v>102</v>
@@ -11527,16 +11523,16 @@
     </row>
     <row r="141" spans="1:8">
       <c r="C141" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D141" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E141" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F141" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G141" t="s">
         <v>132</v>
@@ -11547,13 +11543,13 @@
     </row>
     <row r="142" spans="1:8">
       <c r="C142" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D142" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E142" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F142" t="s">
         <v>117</v>
@@ -11567,13 +11563,13 @@
     </row>
     <row r="143" spans="1:8">
       <c r="C143" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D143" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E143" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F143" t="s">
         <v>119</v>
@@ -11667,16 +11663,16 @@
     </row>
     <row r="148" spans="3:8">
       <c r="C148" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D148" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E148" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F148" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G148" t="s">
         <v>145</v>
@@ -11687,13 +11683,13 @@
     </row>
     <row r="149" spans="3:8">
       <c r="C149" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D149" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E149" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F149" t="s">
         <v>119</v>
@@ -11707,13 +11703,13 @@
     </row>
     <row r="150" spans="3:8">
       <c r="C150" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D150" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F150" t="s">
         <v>81</v>
@@ -11727,16 +11723,16 @@
     </row>
     <row r="151" spans="3:8">
       <c r="C151" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D151" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E151" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F151" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G151" t="s">
         <v>148</v>
@@ -11756,7 +11752,7 @@
         <v>117</v>
       </c>
       <c r="F152" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G152" t="s">
         <v>149</v>
@@ -11776,7 +11772,7 @@
         <v>119</v>
       </c>
       <c r="F153" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G153" t="s">
         <v>150</v>
@@ -11796,7 +11792,7 @@
         <v>152</v>
       </c>
       <c r="F154" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G154" t="s">
         <v>151</v>
@@ -11827,22 +11823,22 @@
     </row>
     <row r="156" spans="3:8">
       <c r="C156" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D156" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E156" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F156" t="s">
         <v>8</v>
       </c>
       <c r="G156" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H156" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="157" spans="3:8">
@@ -11859,10 +11855,10 @@
         <v>139</v>
       </c>
       <c r="G157" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H157" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="158" spans="3:8">
@@ -11876,10 +11872,10 @@
         <v>119</v>
       </c>
       <c r="G158" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H158" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="159" spans="3:8">
@@ -11893,10 +11889,10 @@
         <v>158</v>
       </c>
       <c r="G159" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H159" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="160" spans="3:8">
@@ -11918,13 +11914,13 @@
     </row>
     <row r="161" spans="3:8">
       <c r="C161" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D161" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E161" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G161" t="s">
         <v>141</v>
@@ -11978,10 +11974,10 @@
         <v>120</v>
       </c>
       <c r="G164" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H164" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" spans="3:8">
@@ -11995,10 +11991,10 @@
         <v>126</v>
       </c>
       <c r="G165" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H165" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="166" spans="3:8">
@@ -12012,10 +12008,10 @@
         <v>119</v>
       </c>
       <c r="G166" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H166" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="167" spans="3:8">
@@ -12029,21 +12025,21 @@
         <v>131</v>
       </c>
       <c r="G167" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H167" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="168" spans="3:8">
       <c r="C168" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D168" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E168" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G168" t="s">
         <v>163</v>
@@ -12105,13 +12101,13 @@
     </row>
     <row r="172" spans="3:8">
       <c r="C172" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D172" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E172" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G172" t="s">
         <v>120</v>
@@ -12122,13 +12118,13 @@
     </row>
     <row r="173" spans="3:8">
       <c r="C173" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D173" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E173" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G173" t="s">
         <v>126</v>
@@ -12139,13 +12135,13 @@
     </row>
     <row r="174" spans="3:8">
       <c r="C174" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D174" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E174" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G174" t="s">
         <v>119</v>
@@ -12156,13 +12152,13 @@
     </row>
     <row r="175" spans="3:8">
       <c r="C175" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D175" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E175" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G175" t="s">
         <v>131</v>
@@ -12216,10 +12212,10 @@
         <v>87</v>
       </c>
       <c r="G178" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H178" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="179" spans="3:8">
@@ -12241,13 +12237,13 @@
     </row>
     <row r="180" spans="3:8">
       <c r="C180" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D180" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E180" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G180" t="s">
         <v>42</v>
@@ -12258,13 +12254,13 @@
     </row>
     <row r="181" spans="3:8">
       <c r="C181" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D181" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E181" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G181" t="s">
         <v>175</v>
@@ -12275,19 +12271,19 @@
     </row>
     <row r="182" spans="3:8">
       <c r="C182" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D182" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E182" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G182" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H182" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="183" spans="3:8">
@@ -12301,10 +12297,10 @@
         <v>162</v>
       </c>
       <c r="G183" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H183" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="184" spans="3:8">
@@ -12318,10 +12314,10 @@
         <v>8</v>
       </c>
       <c r="G184" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H184" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="185" spans="3:8">
@@ -12530,7 +12526,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
@@ -12561,10 +12557,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>620</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>621</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="6"/>
@@ -12793,7 +12789,7 @@
         <v>277</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -12807,7 +12803,7 @@
         <v>237</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -12890,55 +12886,48 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="59" t="s">
+        <v>663</v>
+      </c>
+      <c r="B23" s="60" t="s">
         <v>664</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>665</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>436</v>
       </c>
       <c r="E23" s="9">
-        <f>IF(Var_P2P_Subnet_mask=31,0,1)</f>
-        <v>1</v>
+        <f>IF(Var_P2P_Subnet_mask=31,1,2)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="59" t="s">
+        <v>665</v>
+      </c>
+      <c r="B24" s="60" t="s">
         <v>666</v>
       </c>
-      <c r="B24" s="60" t="s">
-        <v>667</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="E24" s="9">
-        <f>IF(Var_P2P_Subnet_mask=31,1,2)</f>
-        <v>2</v>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="D25" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="D26" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>325</v>
+        <v>372</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="D27" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E27" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="D28" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E28" s="17">
         <v>30000</v>
       </c>
     </row>
@@ -12976,7 +12965,7 @@
           <x14:formula1>
             <xm:f>info!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E26</xm:sqref>
+          <xm:sqref>E25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13033,7 +13022,7 @@
         <v>265</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>305</v>
@@ -13064,7 +13053,7 @@
         <v>265</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>306</v>
@@ -13089,11 +13078,11 @@
         <v>251</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="43" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>307</v>
@@ -13116,11 +13105,11 @@
         <v>252</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="43" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13140,11 +13129,11 @@
         <v>253</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13164,11 +13153,11 @@
         <v>254</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13188,11 +13177,11 @@
         <v>255</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13212,11 +13201,11 @@
         <v>256</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13236,11 +13225,11 @@
         <v>257</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="43" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13260,11 +13249,11 @@
         <v>258</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="43" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -13378,7 +13367,7 @@
         <v>238</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -13386,7 +13375,7 @@
         <v>240</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="14"/>
@@ -13394,14 +13383,14 @@
         <v>238</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="3" t="s">
         <v>240</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q3" s="14"/>
     </row>
@@ -13413,7 +13402,7 @@
         <v>238</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -13421,7 +13410,7 @@
         <v>332</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="14"/>
@@ -13429,14 +13418,14 @@
         <v>238</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="3" t="s">
         <v>332</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q4" s="14"/>
     </row>
@@ -13448,7 +13437,7 @@
         <v>238</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -13456,7 +13445,7 @@
         <v>333</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="14"/>
@@ -13464,14 +13453,14 @@
         <v>238</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="3" t="s">
         <v>333</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q5" s="14"/>
     </row>
@@ -13483,7 +13472,7 @@
         <v>238</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -13491,7 +13480,7 @@
         <v>334</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="14"/>
@@ -13499,14 +13488,14 @@
         <v>238</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="3" t="s">
         <v>334</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q6" s="14"/>
     </row>
@@ -13518,7 +13507,7 @@
         <v>238</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -13526,7 +13515,7 @@
         <v>331</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="14"/>
@@ -13534,14 +13523,14 @@
         <v>238</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="3" t="s">
         <v>331</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q7" s="14"/>
     </row>
@@ -13553,7 +13542,7 @@
         <v>238</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -13561,7 +13550,7 @@
         <v>335</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="14"/>
@@ -13569,14 +13558,14 @@
         <v>238</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="3" t="s">
         <v>335</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q8" s="14"/>
     </row>
@@ -13588,7 +13577,7 @@
         <v>330</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -13596,7 +13585,7 @@
         <v>240</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="14"/>
@@ -13604,14 +13593,14 @@
         <v>330</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="3" t="s">
         <v>240</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q9" s="14"/>
     </row>
@@ -13623,7 +13612,7 @@
         <v>330</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -13631,7 +13620,7 @@
         <v>332</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="14"/>
@@ -13639,14 +13628,14 @@
         <v>330</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="3" t="s">
         <v>332</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q10" s="14"/>
     </row>
@@ -13658,7 +13647,7 @@
         <v>330</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -13666,7 +13655,7 @@
         <v>333</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="14"/>
@@ -13674,14 +13663,14 @@
         <v>330</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="3" t="s">
         <v>333</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q11" s="14"/>
     </row>
@@ -13693,7 +13682,7 @@
         <v>330</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -13701,7 +13690,7 @@
         <v>334</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="14"/>
@@ -13709,14 +13698,14 @@
         <v>330</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="3" t="s">
         <v>334</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q12" s="14"/>
     </row>
@@ -13728,7 +13717,7 @@
         <v>330</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -13736,7 +13725,7 @@
         <v>331</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="14"/>
@@ -13744,14 +13733,14 @@
         <v>330</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="3" t="s">
         <v>331</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q13" s="14"/>
     </row>
@@ -13763,7 +13752,7 @@
         <v>330</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -13771,7 +13760,7 @@
         <v>335</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="14"/>
@@ -13779,14 +13768,14 @@
         <v>330</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="3" t="s">
         <v>335</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q14" s="14"/>
     </row>
@@ -13798,7 +13787,7 @@
         <v>331</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -13806,7 +13795,7 @@
         <v>336</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="14"/>
@@ -13814,14 +13803,14 @@
         <v>331</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="4" t="s">
         <v>336</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q15" s="14"/>
     </row>
@@ -13833,7 +13822,7 @@
         <v>331</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -13841,7 +13830,7 @@
         <v>335</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="14"/>
@@ -13849,14 +13838,14 @@
         <v>331</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="4" t="s">
         <v>335</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q16" s="14"/>
     </row>
@@ -13921,15 +13910,15 @@
         <v>243</v>
       </c>
       <c r="M1" t="s">
+        <v>439</v>
+      </c>
+      <c r="O1" t="s">
         <v>440</v>
-      </c>
-      <c r="O1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>387</v>
@@ -14423,36 +14412,36 @@
         <v>243</v>
       </c>
       <c r="M1" t="s">
+        <v>439</v>
+      </c>
+      <c r="O1" t="s">
         <v>440</v>
-      </c>
-      <c r="O1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E3" t="s">
         <v>438</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>438</v>
       </c>
-      <c r="E3" t="s">
-        <v>439</v>
-      </c>
-      <c r="G3" t="s">
-        <v>439</v>
-      </c>
       <c r="I3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -14482,14 +14471,14 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="1" t="e">
         <f>"   ip address 100.101.{1,6}."&amp;Var_SpineP2P_Host_IP&amp;"/"&amp;Var_P2P_Subnet_mask</f>
-        <v xml:space="preserve">   ip address 100.101.{1,6}.1/30</v>
+        <v>#REF!</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="1" t="e">
         <f>"   ip address 100.102.{1,6}."&amp;Var_SpineP2P_Host_IP&amp;"/"&amp;Var_P2P_Subnet_mask</f>
-        <v xml:space="preserve">   ip address 100.102.{1,6}.1/30</v>
+        <v>#REF!</v>
       </c>
       <c r="E5" t="str">
         <f>"   ip address 100.{101,102}.1.2/"&amp;Var_P2P_Subnet_mask</f>
@@ -14682,10 +14671,10 @@
     </row>
     <row r="19" spans="13:15">
       <c r="M19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="13:15">
@@ -14698,10 +14687,10 @@
     </row>
     <row r="21" spans="13:15">
       <c r="M21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="13:15">
@@ -14770,7 +14759,7 @@
         <v>terminal length 400</v>
       </c>
       <c r="C3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14842,7 +14831,7 @@
         <v>spanning-tree mode none</v>
       </c>
       <c r="C16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:1">
